--- a/Excel_files/HypothesisTesting.xlsx
+++ b/Excel_files/HypothesisTesting.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="17865" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="常见场景" sheetId="1" r:id="rId1"/>
-    <sheet name="ANOVA2" sheetId="2" r:id="rId2"/>
-    <sheet name="理论篇" sheetId="3" r:id="rId3"/>
+    <sheet name="相关分析" sheetId="4" r:id="rId2"/>
+    <sheet name="ANOVA2" sheetId="2" r:id="rId3"/>
+    <sheet name="理论篇" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
   <si>
     <t>检验对象</t>
   </si>
@@ -149,9 +150,6 @@
   </si>
   <si>
     <t>中值检验</t>
-  </si>
-  <si>
-    <t>皮尔逊相关系数</t>
   </si>
   <si>
     <t>ρ=0</t>
@@ -437,12 +435,78 @@
     <t>matlab.vartestn</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>Pearson相关系数</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>小样本：Kendall分布
+大样本：</t>
+  </si>
+  <si>
+    <t>（-1,1）</t>
+  </si>
+  <si>
+    <t>（三种公式之一）
+是一种无参数检验法</t>
+  </si>
+  <si>
+    <t>Kendall等级相关系数</t>
+  </si>
+  <si>
+    <t>小样本：服从自由度n-2的Spearman分布
+大样本：</t>
+  </si>
+  <si>
+    <t>(-1,1)
+-1:完全负相关
+1：完全正相关
+0：不相关</t>
+  </si>
+  <si>
+    <t>成对的等级数据，
+无论分布</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spearman相关系数</t>
+  </si>
+  <si>
+    <t>P小，
+拒绝原假设，
+认为有相关性</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>成对的连续数据，
+接近正态的单峰分布</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pearson相关系数</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>统计量</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>特征</t>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +659,28 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -610,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -657,16 +743,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,28 +909,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,12 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -769,18 +954,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -796,10 +969,96 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -1137,7 +1396,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>152401</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1181,7 +1440,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>619125</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161924</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1217,15 +1476,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>36029</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>1499152</xdr:rowOff>
+          <xdr:rowOff>1495425</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1200978</xdr:colOff>
+          <xdr:colOff>1200150</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>165652</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1263,13 +1522,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>49695</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>2276475</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>1200978</xdr:rowOff>
+          <xdr:rowOff>1200150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1437,15 +1696,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>42497</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>59349</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>974481</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>615463</xdr:rowOff>
+          <xdr:rowOff>619125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1483,13 +1742,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>86554</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>1176131</xdr:rowOff>
+          <xdr:rowOff>1171575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1613,13 +1872,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>79864</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>685800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1582615</xdr:colOff>
+          <xdr:colOff>1581150</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>1352550</xdr:rowOff>
         </xdr:to>
@@ -1877,15 +2136,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>65433</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>3727</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1208433</xdr:colOff>
+          <xdr:colOff>1209675</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>31059</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1928,6 +2187,516 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2714625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>800100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1952625</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>857250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4098" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>457200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1609725</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>876300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>381000</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="381000" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4100" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4100"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1343025" cy="466725"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4101" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4101"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1971675</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="723900" cy="457200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4102" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4102"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="381000" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4103" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4103"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1343025" cy="466725"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4104" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4104"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>647700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4105" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4105"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="381000" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4106" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4106"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>542925</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1143000" cy="476250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4107" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4107"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2923,7 +3692,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3232,9 +4001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3271,521 +4040,521 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="40" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="16"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="16"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="17"/>
+      <c r="G5" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="17"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="17"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="18"/>
+      <c r="G8" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="18"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>69</v>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="19" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="14"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="14"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="42" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="25"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="18"/>
+      <c r="G15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="20" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="21" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="18"/>
+      <c r="G16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="17"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="17"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="17"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="38"/>
+      <c r="F20" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="17"/>
+      <c r="G20" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="17"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="17"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="17"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="18"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="D26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="26" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="12" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="29" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>68</v>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="26" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>63</v>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="20" t="s">
+      <c r="A30" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="18"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="20" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="18"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="20" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="18"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="30" t="s">
+      <c r="A33" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" s="31"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="30" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="31"/>
+      <c r="G34" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" s="31"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="22"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D39" s="6"/>
@@ -3796,6 +4565,37 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="43">
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A2:A16"/>
@@ -3808,37 +4608,6 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
@@ -4480,6 +5249,396 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="38.125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="43"/>
+    <col min="6" max="6" width="29" style="43" customWidth="1"/>
+    <col min="7" max="16384" width="8.25" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="57"/>
+      <c r="B1" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="45"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="44"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="4097" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>2714625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>800100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="4097" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="4098" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1952625</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>857250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="4098" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="4099" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>457200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1609725</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>876300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="4099" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="4100" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>381000</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>581025</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="4100" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="4101" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1409700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>723900</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="4101" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="4102" r:id="rId14">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1971675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>371475</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>2695575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>828675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="4102" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="4103" r:id="rId16">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>419100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>619125</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="4103" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="4104" r:id="rId17">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>571500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>2171700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>1038225</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="4104" r:id="rId17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="4105" r:id="rId18">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId19">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>647700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="4105" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="4106" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>428625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="4106" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="4107" r:id="rId21">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>542925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1733550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>1019175</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="4107" r:id="rId21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4496,72 +5655,72 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4878,7 +6037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4894,22 +6053,22 @@
   <sheetData>
     <row r="1" spans="1:2" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_files/HypothesisTesting.xlsx
+++ b/Excel_files/HypothesisTesting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="17865" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="2355" yWindow="0" windowWidth="17865" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="常见场景" sheetId="1" r:id="rId1"/>
@@ -346,10 +346,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Python(scipy.stats as stats, statsmodel.api as sm)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>离散样本</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -500,6 +496,10 @@
   </si>
   <si>
     <t>定义</t>
+  </si>
+  <si>
+    <t>Python(scipy.stats as stats, statsmodels.api as sm)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -969,45 +969,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
@@ -1052,6 +1013,45 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2322,14 +2322,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="381000" cy="200025"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>581025</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4100" name="Object 4" hidden="1">
@@ -2363,20 +2368,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1343025" cy="466725"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1409700</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>723900</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4101" name="Object 5" hidden="1">
@@ -2410,20 +2420,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1971675</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>371475</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="723900" cy="457200"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2695575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>828675</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4102" name="Object 6" hidden="1">
@@ -2457,20 +2472,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>419100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="381000" cy="200025"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>619125</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4103" name="Object 7" hidden="1">
@@ -2504,20 +2524,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>828675</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1343025" cy="466725"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>2171700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>1038225</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4104" name="Object 8" hidden="1">
@@ -2551,7 +2576,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2601,14 +2626,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="381000" cy="200025"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4106" name="Object 10" hidden="1">
@@ -2642,20 +2672,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>590550</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>542925</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1143000" cy="476250"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1733550</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>1019175</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4107" name="Object 11" hidden="1">
@@ -2689,7 +2724,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -4001,9 +4036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4040,188 +4075,188 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="46" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="41"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="41"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="42"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="42"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="42"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="50" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="50" t="s">
         <v>79</v>
       </c>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="35"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="50" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="35" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="38"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="38"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
@@ -4232,12 +4267,12 @@
       <c r="E14" s="16"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="12" t="s">
         <v>74</v>
       </c>
@@ -4257,7 +4292,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="12" t="s">
         <v>75</v>
       </c>
@@ -4275,95 +4310,95 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="42"/>
+      <c r="G17" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="42"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="48"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="42"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="50" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38" t="s">
+      <c r="E20" s="49"/>
+      <c r="F20" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="42"/>
+      <c r="G20" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="42"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="42"/>
+      <c r="G22" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="42"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="48"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="16" t="s">
         <v>31</v>
       </c>
@@ -4372,12 +4407,12 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="16"/>
       <c r="C25" s="11"/>
       <c r="D25" s="17"/>
@@ -4387,14 +4422,14 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>33</v>
@@ -4402,17 +4437,17 @@
       <c r="E26" s="19"/>
       <c r="F26" s="10"/>
       <c r="G26" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="18"/>
       <c r="C27" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>35</v>
@@ -4428,10 +4463,10 @@
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="18"/>
       <c r="C28" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>37</v>
@@ -4447,10 +4482,10 @@
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="16"/>
       <c r="C29" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>38</v>
@@ -4465,8 +4500,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
-        <v>100</v>
+      <c r="A30" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="10"/>
@@ -4479,7 +4514,7 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="16"/>
       <c r="C31" s="11"/>
       <c r="D31" s="13" t="s">
@@ -4491,7 +4526,7 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="16"/>
       <c r="C32" s="11"/>
       <c r="D32" s="13" t="s">
@@ -4500,34 +4535,34 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
-        <v>101</v>
+      <c r="A33" s="55" t="s">
+        <v>100</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="25" t="s">
         <v>95</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>96</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>42</v>
@@ -4538,21 +4573,21 @@
         <v>43</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H35" s="22"/>
     </row>
@@ -4565,37 +4600,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="43">
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A2:A16"/>
@@ -4608,6 +4612,37 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A26:A29"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
@@ -5251,105 +5286,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="38.125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="43"/>
-    <col min="6" max="6" width="29" style="43" customWidth="1"/>
-    <col min="7" max="16384" width="8.25" style="43"/>
+    <col min="1" max="1" width="17.875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="38.125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="30"/>
+    <col min="6" max="6" width="29" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="8.25" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="57"/>
-      <c r="B1" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="E1" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="F1" s="43" t="s">
         <v>118</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="54" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>115</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="41" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="53" t="s">
+      <c r="A3" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51" t="s">
+      <c r="D3" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51" t="s">
+      <c r="A4" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="46" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="32"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
+      <c r="B8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
+      <c r="B9" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
